--- a/testdata/Data.xlsx
+++ b/testdata/Data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\eclipse-workspace\SeleniumFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5613D60-6DD6-4B7B-875E-5FC22509E438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2EB097-16BF-4BC7-BE33-C3F081569428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="669" xr2:uid="{BEF7A82F-5605-4FA0-939C-5E906916324A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login_details" sheetId="1" r:id="rId1"/>
+    <sheet name="login_details" sheetId="5" r:id="rId1"/>
     <sheet name="Courses_details" sheetId="2" r:id="rId2"/>
     <sheet name="category_details" sheetId="3" r:id="rId3"/>
     <sheet name="product_details" sheetId="4" r:id="rId4"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Password</t>
   </si>
@@ -56,18 +56,12 @@
   <si>
     <t>deepika.avula@gmail.com</t>
   </si>
-  <si>
-    <t>prakash.ogeti@gmail.com</t>
-  </si>
-  <si>
-    <t>prakash123</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +77,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -92,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -100,14 +108,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -422,57 +447,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2825741-BC56-43B6-B92D-C41E8791DC66}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E09B8F-8BFD-40CE-A5B3-609197F31E4A}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{8C00964B-D340-465A-959A-1429F5853470}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{2EBECD47-7068-403E-B873-FEB100256F56}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{64046DDE-282A-4039-8460-D9938001FB79}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{6760D2A1-F97C-4D92-897A-DC906776209B}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{2EC43F15-D053-4C8C-986E-1D06D54B0A29}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{CFB09ABF-4906-49A2-9B39-B4192D6DD31A}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{54DC5B33-E3AE-4478-9FB2-3F88C1325B81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
